--- a/round3_cryptanalysis.xlsx
+++ b/round3_cryptanalysis.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyou\Desktop\LWC_finalists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20180828\Desktop\LWC_finalists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625EB2A5-A2EE-453E-81D0-21ED8C8FD29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="669" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="745" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="diff, linear" sheetId="1" r:id="rId1"/>
-    <sheet name="integral" sheetId="3" r:id="rId2"/>
-    <sheet name="zero-sum" sheetId="4" r:id="rId3"/>
-    <sheet name="imp-diff, zero-cor" sheetId="5" r:id="rId4"/>
-    <sheet name="subspace" sheetId="6" r:id="rId5"/>
-    <sheet name="diff-linear" sheetId="7" r:id="rId6"/>
+    <sheet name="summarize" sheetId="13" r:id="rId1"/>
+    <sheet name="diff, linear" sheetId="1" r:id="rId2"/>
+    <sheet name="integral" sheetId="3" r:id="rId3"/>
+    <sheet name="zero-sum" sheetId="4" r:id="rId4"/>
+    <sheet name="imp-diff, zero-cor" sheetId="5" r:id="rId5"/>
+    <sheet name="subspace" sheetId="6" r:id="rId6"/>
     <sheet name="cube" sheetId="8" r:id="rId7"/>
-    <sheet name="rebound" sheetId="9" r:id="rId8"/>
-    <sheet name="abbr." sheetId="10" r:id="rId9"/>
-    <sheet name="others" sheetId="11" r:id="rId10"/>
+    <sheet name="rebound, mitm" sheetId="9" r:id="rId8"/>
+    <sheet name="diff-linear" sheetId="7" r:id="rId9"/>
+    <sheet name="abbr." sheetId="10" r:id="rId10"/>
+    <sheet name="others" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="114">
   <si>
     <t>Ascon-p</t>
   </si>
@@ -290,13 +290,194 @@
   </si>
   <si>
     <t>GIFT-128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>kr</t>
+  </si>
+  <si>
+    <t>absorbing plaintext phase</t>
+  </si>
+  <si>
+    <t>conditional cube attack</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero-sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rk rectangle, truncated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skinny-n-2n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skinny-n-n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skinny-128-384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mitm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for gift-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>full rounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOODOO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skinny-128-384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spongent-Π[160]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alzette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditional diff, weak key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grain-128AEADv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPARKLE-256</t>
+  </si>
+  <si>
+    <t>SPARKLE-384</t>
+  </si>
+  <si>
+    <t>SPARKLE-512</t>
+  </si>
+  <si>
+    <t>bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rk kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boomerang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,12 +522,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -363,6 +547,3316 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ascon-p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$2:$G$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Keccak-f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$3:$G$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spongent-Π[160]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$5:$G$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GIFT-128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$6:$G$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHOTON-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$7:$G$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPARKLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$9:$G$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skinny-128-384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$8:$G$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOODOO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$C$1:$G$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$B$4:$G$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-EAD6-4C41-8DE0-BE8E85CEE38E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="341605408"/>
+        <c:axId val="338497584"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="341605408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338497584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338497584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341605408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ascon-p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$2:$S$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Keccak-f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$3:$S$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$3:$R$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spongent-Π[160]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$5:$S$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$5:$R$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GIFT-128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$6:$S$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$6:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHOTON-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$7:$S$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$7:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPARKLE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$9:$S$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skinny-128-384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$1:$S$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$1:$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>diff</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>linear</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>integral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>zero-sum</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>cube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$8:$S$8</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$8:$R$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26785714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19642857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOODOO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>diff</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>linear</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>integral</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>zero-sum</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>cube</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>summarize!$N$4:$S$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>summarize!$N$4:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2131-443D-AE3D-7A467B482530}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="341605408"/>
+        <c:axId val="338497584"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="341605408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338497584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338497584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="341605408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423644</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118669</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>153642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52668</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>48692</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>176177</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,11 +4121,679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>C2/B2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O2">
+        <f>D2/B2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P2">
+        <f>E2/B2</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q2">
+        <f>F2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>G2/B2</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="S2">
+        <f>H2/B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <f>C3/B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <f>D3/B3</f>
+        <v>0.25</v>
+      </c>
+      <c r="P3">
+        <f>E3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>F3/B3</f>
+        <v>1.5</v>
+      </c>
+      <c r="R3">
+        <f>G3/B3</f>
+        <v>0.5625</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="0">H3/B3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>C4/B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <f>D4/B4</f>
+        <v>0.25</v>
+      </c>
+      <c r="P4">
+        <f>E4/B4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>F4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f>G4/B4</f>
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <f>C5/B5</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="O5">
+        <f>D5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f>E5/B5</f>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="Q5">
+        <f>F5/B5</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="R5">
+        <f>G5/B5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <f>C6/B6</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="O6">
+        <f>D6/B6</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P6">
+        <f>E6/B6</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="Q6">
+        <f>F6/B6</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>G6/B6</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <f>C7/B7</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="O7">
+        <f>D7/B7</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="P7">
+        <f>E7/B7</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q7">
+        <f>F7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>G7/B7</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="N8">
+        <f>C8/B8</f>
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <f>D8/B8</f>
+        <v>0.26785714285714285</v>
+      </c>
+      <c r="P8">
+        <f>E8/B8</f>
+        <v>0.19642857142857142</v>
+      </c>
+      <c r="Q8">
+        <f>F8/B8</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>G8/B8</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>C9/B9</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="O9">
+        <f>D9/B9</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P9">
+        <f>E9/B9</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="Q9">
+        <f>F9/B9</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>G9/B9</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>384</v>
+      </c>
+      <c r="C10">
+        <v>338</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="1">C10/B10</f>
+        <v>0.88020833333333337</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O11" si="2">D10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P11" si="3">E10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q11" si="4">F10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ref="R10:R11" si="5">G10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="G11">
+        <v>184</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>0.359375</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B18:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,52 +4917,57 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
       <c r="E9">
-        <v>21</v>
-      </c>
-      <c r="F9">
-        <v>126.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>72.66</v>
+        <v>126.4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -811,14 +4978,11 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
       <c r="E11">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2">
-        <v>109.626</v>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>72.66</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -827,12 +4991,17 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
         <v>19</v>
       </c>
-      <c r="E12">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>109.626</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -840,13 +5009,10 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -856,17 +5022,15 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2">
-        <v>109</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -874,209 +5038,260 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
         <v>23</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>37</v>
+      <c r="A18" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>56.93</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>116.59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>6</v>
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>341.1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26">
+        <v>640</v>
+      </c>
+      <c r="F26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>384</v>
+      </c>
+      <c r="F27">
+        <v>70.680000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>338</v>
+      </c>
+      <c r="F28">
+        <v>62.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B34" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="E30">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
-        <v>80</v>
-      </c>
-      <c r="F31">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
-        <v>90</v>
-      </c>
-      <c r="F32">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>45.99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
@@ -1085,94 +5300,272 @@
         <v>48</v>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F35">
-        <v>90.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
       <c r="E36">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>90</v>
+      </c>
+      <c r="F39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>45.99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>15</v>
+      </c>
+      <c r="F42">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>26</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="E37">
+      <c r="E44">
         <v>5</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="E45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="F46">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="F47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49">
+        <v>512</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,92 +5573,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE70CA8-45B6-491F-9456-BB5DD84E0CC0}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96706B3-DD7D-40EB-999B-C15DDF3F82AB}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1390,9 +5703,30 @@
       <c r="A8" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
     </row>
@@ -1418,12 +5752,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543CBC9E-8552-43C2-B5F0-7B633E666216}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1488,66 +5822,78 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4">
+      <c r="D5" s="1"/>
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1562,12 +5908,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FDEC40-07AF-4B83-ADC0-1F2604741700}">
-  <dimension ref="A1:E25"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1630,107 +5976,165 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1740,12 +6144,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2005CF-1E9F-46C6-9D4A-03861401EF59}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1805,6 +6209,15 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1832,12 +6245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16479EC5-9423-4D42-B6AB-52486BC850B4}">
-  <dimension ref="A1:F11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1869,59 +6282,132 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>31.4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>256</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="F4">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>43.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>184</v>
+      </c>
+      <c r="F13">
+        <v>109.61</v>
       </c>
     </row>
   </sheetData>
@@ -1930,12 +6416,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F649E4-8D6B-4F0A-9CF8-5C74AB6268E2}">
-  <dimension ref="A1:F13"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>382.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1967,264 +6587,89 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>104</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>256</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4">
-        <v>129</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>36</v>
+      <c r="A5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10">
         <v>4</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94565155-1BA1-4DDC-BF91-81CFE00A0FB3}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9BB8C-F9F5-4873-B970-E136C72B9990}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/round3_cryptanalysis.xlsx
+++ b/round3_cryptanalysis.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20180828\Desktop\LWC_finalists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianyou\Desktop\LWC_finalists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73B98F-058F-44DC-A726-0622E1B1426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="745" activeTab="7"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summarize" sheetId="13" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="abbr." sheetId="10" r:id="rId10"/>
     <sheet name="others" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -477,7 +478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1549,7 +1550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2635,7 +2635,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2667,6 +2666,861 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ascon-p</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Keccak-f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XOODOO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spongent-Π[160]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.26250000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GIFT-128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PHOTON-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:alpha val="99000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FBC8-44AA-AB50-5A99E3D69FF3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summarize!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skinny-128-384</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summarize!$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summarize!$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.39285714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-50CC-4762-AC4C-5A24F2E727F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="990384896"/>
+        <c:axId val="990385312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="990384896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>差分</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>线性类</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990385312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="990385312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>积分类</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990384896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2782,6 +3636,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
   <cs:axisTitle>
@@ -3792,24 +4686,546 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>423644</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>153643</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42644</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>118669</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>153642</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423469</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163167</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3827,19 +5243,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>52668</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>176177</xdr:rowOff>
+      <xdr:rowOff>33302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48692</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>681824</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>176177</xdr:rowOff>
+      <xdr:rowOff>33302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3851,6 +5273,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>687043</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>458442</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3895FA8-AB08-446B-BD47-81983477B3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4121,11 +5579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4133,7 +5591,7 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>92</v>
       </c>
@@ -4174,7 +5632,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4200,31 +5658,39 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>C2/B2</f>
+        <f t="shared" ref="N2:N9" si="0">C2/B2</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="O2">
-        <f>D2/B2</f>
+        <f t="shared" ref="O2:O9" si="1">D2/B2</f>
         <v>0.41666666666666669</v>
       </c>
       <c r="P2">
-        <f>E2/B2</f>
+        <f t="shared" ref="P2:P9" si="2">E2/B2</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="Q2">
-        <f>F2/B2</f>
+        <f t="shared" ref="Q2:Q9" si="3">F2/B2</f>
         <v>1</v>
       </c>
       <c r="R2">
-        <f>G2/B2</f>
+        <f t="shared" ref="R2:R9" si="4">G2/B2</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="S2">
         <f>H2/B2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2">
+        <f>MAX(N2:O2)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U2">
+        <f>MAX(Q2:S2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4250,31 +5716,39 @@
         <v>8</v>
       </c>
       <c r="N3">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O3">
-        <f>D3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="P3">
-        <f>E3/B3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f>F3/B3</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="R3">
-        <f>G3/B3</f>
+        <f t="shared" si="4"/>
         <v>0.5625</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S11" si="0">H3/B3</f>
+        <f t="shared" ref="S3:S11" si="5">H3/B3</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3">
+        <f t="shared" ref="T3:T10" si="6">MAX(N3:O3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U10" si="7">MAX(Q3:S3)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -4300,31 +5774,39 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="O4">
-        <f>D4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="P4">
-        <f>E4/B4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f>F4/B4</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R4">
-        <f>G4/B4</f>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -4350,31 +5832,39 @@
         <v>19</v>
       </c>
       <c r="N5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="O5">
-        <f>D5/B5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>E5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.13750000000000001</v>
       </c>
       <c r="Q5">
-        <f>F5/B5</f>
+        <f t="shared" si="3"/>
         <v>0.26250000000000001</v>
       </c>
       <c r="R5">
-        <f>G5/B5</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.23749999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>0.26250000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4400,31 +5890,39 @@
         <v>15</v>
       </c>
       <c r="N6">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="O6">
-        <f>D6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="P6">
-        <f>E6/B6</f>
+        <f t="shared" si="2"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="Q6">
-        <f>F6/B6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f>G6/B6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6">
+        <f t="shared" si="6"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4450,31 +5948,39 @@
         <v>8</v>
       </c>
       <c r="N7">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="O7">
-        <f>D7/B7</f>
+        <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="P7">
-        <f>E7/B7</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q7">
-        <f>F7/B7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>G7/B7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -4500,31 +6006,39 @@
         <v>22</v>
       </c>
       <c r="N8">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="O8">
-        <f>D8/B8</f>
+        <f t="shared" si="1"/>
         <v>0.26785714285714285</v>
       </c>
       <c r="P8">
-        <f>E8/B8</f>
+        <f t="shared" si="2"/>
         <v>0.19642857142857142</v>
       </c>
       <c r="Q8">
-        <f>F8/B8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R8">
-        <f>G8/B8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.39285714285714285</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4550,31 +6064,39 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="O9">
-        <f>D9/B9</f>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="P9">
-        <f>E9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="Q9">
-        <f>F9/B9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R9">
-        <f>G9/B9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -4585,31 +6107,39 @@
         <v>338</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:N11" si="1">C10/B10</f>
+        <f t="shared" ref="N10:N11" si="8">C10/B10</f>
         <v>0.88020833333333337</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O11" si="2">D10/B10</f>
+        <f t="shared" ref="O10:O11" si="9">D10/B10</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10:P11" si="3">E10/B10</f>
+        <f t="shared" ref="P10:P11" si="10">E10/B10</f>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" ref="Q10:Q11" si="4">F10/B10</f>
+        <f t="shared" ref="Q10:Q11" si="11">F10/B10</f>
         <v>0</v>
       </c>
       <c r="R10">
-        <f t="shared" ref="R10:R11" si="5">G10/B10</f>
+        <f t="shared" ref="R10:R11" si="12">G10/B10</f>
         <v>0</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10">
+        <f t="shared" si="6"/>
+        <v>0.88020833333333337</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -4620,28 +6150,36 @@
         <v>184</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R11">
+        <f t="shared" si="12"/>
+        <v>0.359375</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11" si="13">MAX(N11:O11)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U11" si="14">MAX(Q11:S11)</f>
         <v>0.359375</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4653,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4709,14 +6247,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -4789,11 +6331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B18:F22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5574,11 +7116,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5586,7 +7128,7 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5753,7 +7295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5909,11 +7451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6145,7 +7687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6246,14 +7788,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -6417,11 +7962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6551,7 +8096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
